--- a/biology/Médecine/Santé_Québec/Santé_Québec.xlsx
+++ b/biology/Médecine/Santé_Québec/Santé_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Qu%C3%A9bec</t>
+          <t>Santé_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Santé Québec est une société d'État chargée de coordonner les opérations du réseau de la santé québécois. Sa création est officiellement amorcée le 9 décembre 2023 par l'adoption de la Loi visant à rendre le système de santé et de services sociaux plus efficace[1].
-Cette entité s'inscrit dans la réforme du système de la santé entreprise par le ministre Christian Dubé. Elle deviendra l'employeur unique du personnel de la santé au Québec, occasionnera la fusion des accréditations syndicales et des listes d'ancienneté unique, en vue notamment de permettre une meilleure mobilité du personnel sur le territoire du Québec[2]. En mai 2024, Santé Québec emploie environ 300 000 employés[3].
+Santé Québec est une société d'État chargée de coordonner les opérations du réseau de la santé québécois. Sa création est officiellement amorcée le 9 décembre 2023 par l'adoption de la Loi visant à rendre le système de santé et de services sociaux plus efficace.
+Cette entité s'inscrit dans la réforme du système de la santé entreprise par le ministre Christian Dubé. Elle deviendra l'employeur unique du personnel de la santé au Québec, occasionnera la fusion des accréditations syndicales et des listes d'ancienneté unique, en vue notamment de permettre une meilleure mobilité du personnel sur le territoire du Québec. En mai 2024, Santé Québec emploie environ 300 000 employés.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Qu%C3%A9bec</t>
+          <t>Santé_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2024, il est annoncé que le président-directeur général de Santé Québec gagnera annuellement 543 000 $ et deviendra ainsi un des hauts fonctionnaires les mieux payés par l'État québécois, son salaire étant le double de celui du premier ministre du Québec[4].
-Le 29 avril 2024, le ministre de la Santé annonce la nomination de Geneviève Biron, ex-PDG de Biron Groupe Santé, en tant que présidente et cheffe de la direction ainsi que de Frédéric Abergel, ex-PDG du CHUM, comme vice-président exécutif aux opérations et à la transformation. Ces nominations officialisent du même coup la création de Santé Québec, tel que prévu dans la Loi visant à rendre le système de santé et de services sociaux plus efficace[5].
-En mai 2024, Christiane Germain, co-présidente du Groupe Germain, est nommée présidente du conseil d'administration de Santé Québec[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2024, il est annoncé que le président-directeur général de Santé Québec gagnera annuellement 543 000 $ et deviendra ainsi un des hauts fonctionnaires les mieux payés par l'État québécois, son salaire étant le double de celui du premier ministre du Québec.
+Le 29 avril 2024, le ministre de la Santé annonce la nomination de Geneviève Biron, ex-PDG de Biron Groupe Santé, en tant que présidente et cheffe de la direction ainsi que de Frédéric Abergel, ex-PDG du CHUM, comme vice-président exécutif aux opérations et à la transformation. Ces nominations officialisent du même coup la création de Santé Québec, tel que prévu dans la Loi visant à rendre le système de santé et de services sociaux plus efficace.
+En mai 2024, Christiane Germain, co-présidente du Groupe Germain, est nommée présidente du conseil d'administration de Santé Québec.
 </t>
         </is>
       </c>
